--- a/YD11NL_0330/Gyak8_ütemezés.xlsx
+++ b/YD11NL_0330/Gyak8_ütemezés.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\encip\OneDrive\Asztali gép\Egyetem\OP rendszerek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\encip\OneDrive\Asztali gép\YD11NLOsGyak\YD11NL_0330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF67928-A0CF-4F18-AAD4-8C08C81480DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBFE9F-B732-46AF-BD6E-58319614CA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{150A0DB2-670A-44CF-8108-5E7C1FB06755}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5402226A-D366-42EB-81BB-6381835FA48D}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,8 +993,8 @@
         <v>11</v>
       </c>
       <c r="M26" s="1">
-        <f>G26/(G26+L22*6+L23*4)</f>
-        <v>0.98550724637681164</v>
+        <f>G26/(G26+L22*6+L23*3)</f>
+        <v>0.98693759071117571</v>
       </c>
       <c r="S26" s="1"/>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28">
-        <f t="shared" ref="E28:F28" si="12">E26-E23</f>
+        <f t="shared" ref="E28" si="12">E26-E23</f>
         <v>11</v>
       </c>
       <c r="F28" s="2">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28">
-        <f t="shared" ref="H28:J28" si="13">H26-H23</f>
+        <f t="shared" ref="H28" si="13">H26-H23</f>
         <v>22</v>
       </c>
       <c r="I28">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29">
-        <f t="shared" ref="E29:F29" si="14">E25-E23</f>
+        <f t="shared" ref="E29" si="14">E25-E23</f>
         <v>3</v>
       </c>
       <c r="F29" s="2">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="H29">
-        <f t="shared" ref="H29:J29" si="15">H25-H23</f>
+        <f t="shared" ref="H29" si="15">H25-H23</f>
         <v>12</v>
       </c>
       <c r="I29">
